--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI-202505B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913AE2F-F38A-4FE1-9755-695053F370CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BBCED-BF50-41DF-AB39-FA5CBFE99B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
   </bookViews>
   <sheets>
     <sheet name="marksheet" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>SumIFS</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E80A2-0C3A-40E1-88BC-AFCA967E9F61}">
   <dimension ref="G3:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1520,12 +1523,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0B74D-1F7A-4B7C-8BCA-96B038E2A4C9}">
-  <dimension ref="A1"/>
+  <dimension ref="E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI-202505B1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AI-202505B12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BBCED-BF50-41DF-AB39-FA5CBFE99B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468BC295-8FD8-477D-9773-229544BDB703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
   </bookViews>
   <sheets>
     <sheet name="marksheet" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>Hello This is kinza</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -283,21 +286,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1273,11 +1262,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:M14">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(ISNUMBER(I5),I5&gt;=0,I5&lt;=40)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1497,19 +1486,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(K6))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(K6))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(K6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(M6))=0</formula>
-    </cfRule>
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(M6))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(M6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1523,17 +1512,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0B74D-1F7A-4B7C-8BCA-96B038E2A4C9}">
-  <dimension ref="E7"/>
+  <dimension ref="E7:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AI-202505B12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI-202505B12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468BC295-8FD8-477D-9773-229544BDB703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145C2D6-068C-463A-8ADA-F288E35EB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
   </bookViews>
   <sheets>
     <sheet name="marksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="pivot table" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -184,10 +188,103 @@
     <t>SumIFS</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>Hello This is kinza</t>
+    <t>Total Sell</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>remaining stock</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       copies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   watches</t>
+  </si>
+  <si>
+    <t>rings</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Revenue</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of Total Sell</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Janauary</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>multan</t>
+  </si>
+  <si>
+    <t>february</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>islamabad</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>Total sell</t>
   </si>
 </sst>
 </file>
@@ -252,16 +349,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -310,6 +415,12 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -327,6 +438,652 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45822.424647800923" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{5D95B472-5491-40BC-AFC8-D7A6E5AA121F}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="13">
+        <s v="bags"/>
+        <s v="   watches"/>
+        <s v="   Shoes"/>
+        <s v=" bags"/>
+        <s v="pen"/>
+        <s v="  mouse"/>
+        <s v="  laptop"/>
+        <s v="ink"/>
+        <s v="Shoes"/>
+        <s v="       copies"/>
+        <s v="keyboard"/>
+        <s v="rings"/>
+        <s v="socks"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="75000"/>
+    </cacheField>
+    <cacheField name="remaining stock" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10" maxValue="78.5"/>
+    </cacheField>
+    <cacheField name="Total Sell" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="150" maxValue="1200" count="6">
+        <n v="1200"/>
+        <n v="150"/>
+        <n v="500"/>
+        <n v="700"/>
+        <n v="450"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45000" maxValue="11250000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45822.439112268519" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{114AB437-AD46-4E1F-84D6-9F251C10BF41}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Apple"/>
+        <s v="Mango"/>
+        <s v="strawberry"/>
+        <s v="watermelon"/>
+        <s v="banana"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250" maxValue="850"/>
+    </cacheField>
+    <cacheField name="Total sell" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="450" maxValue="1200"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112500" maxValue="900000"/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Karachi"/>
+        <s v="multan"/>
+        <s v="islamabad"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Janauary"/>
+        <s v="february"/>
+        <s v="march"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <n v="78.5"/>
+    <x v="0"/>
+    <n v="6000000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6000"/>
+    <n v="45.56"/>
+    <x v="1"/>
+    <n v="900000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4500"/>
+    <n v="56.56"/>
+    <x v="2"/>
+    <n v="2250000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5000"/>
+    <n v="45.5"/>
+    <x v="2"/>
+    <n v="2500000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="200"/>
+    <n v="45"/>
+    <x v="3"/>
+    <n v="140000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="500"/>
+    <n v="20.6"/>
+    <x v="4"/>
+    <n v="225000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="75000"/>
+    <n v="15"/>
+    <x v="1"/>
+    <n v="11250000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="100"/>
+    <n v="10"/>
+    <x v="4"/>
+    <n v="45000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4500"/>
+    <n v="10"/>
+    <x v="5"/>
+    <n v="900000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="450"/>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="225000"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1200"/>
+    <n v="12"/>
+    <x v="1"/>
+    <n v="180000"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="450"/>
+    <n v="12"/>
+    <x v="3"/>
+    <n v="315000"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="200"/>
+    <n v="15"/>
+    <x v="4"/>
+    <n v="90000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <x v="0"/>
+    <n v="250"/>
+    <n v="1200"/>
+    <n v="300000"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="300"/>
+    <n v="450"/>
+    <n v="135000"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="500"/>
+    <n v="175000"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="750"/>
+    <n v="1200"/>
+    <n v="900000"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="800"/>
+    <n v="750"/>
+    <n v="600000"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="750"/>
+    <n v="454"/>
+    <n v="340500"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="250"/>
+    <n v="450"/>
+    <n v="112500"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="850"/>
+    <n v="900"/>
+    <n v="765000"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="450"/>
+    <n v="225000"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="250"/>
+    <n v="900"/>
+    <n v="225000"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="450"/>
+    <n v="1000"/>
+    <n v="450000"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1ED7339-9E33-47D8-9CAE-3BD9B6E0B79C}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E32:G46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Total Sell" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Revenue" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33847A6B-C00B-4D9C-9929-EC82D33651DF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M8:O22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Revenue" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Price" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1B899B1-00F7-494D-B6A4-F280F8D5A37C}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H26:L41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE904229-1239-4515-9838-8D2308E8E0BA}" name="Table1" displayName="Table1" ref="F8:J21" totalsRowShown="0">
+  <autoFilter ref="F8:J21" xr:uid="{AE904229-1239-4515-9838-8D2308E8E0BA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B5A8B342-3F1D-45CA-9FFD-151E18DB4253}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{726D6468-8868-4A90-B960-DB44AE80BC4B}" name="Price"/>
+    <tableColumn id="3" xr3:uid="{F63A54B3-B5EC-41D9-8CB6-8F0BFE361CE9}" name="remaining stock"/>
+    <tableColumn id="4" xr3:uid="{03B93EBD-1901-47A6-BDEC-2AAF2846C418}" name="Total Sell"/>
+    <tableColumn id="5" xr3:uid="{6C4F7D53-F07B-4D92-A767-D48A548B8A74}" name="Revenue" dataDxfId="7">
+      <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{920B81EC-5295-4F58-9EFC-49C0F2A69FAC}" name="Table2" displayName="Table2" ref="G8:L19" totalsRowShown="0">
+  <autoFilter ref="G8:L19" xr:uid="{920B81EC-5295-4F58-9EFC-49C0F2A69FAC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{466B989D-1E86-4410-AE3D-52B77194F4E2}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{5E3B4506-9988-45E3-B7FB-97B573A8167A}" name="Price"/>
+    <tableColumn id="3" xr3:uid="{2B2D50DF-33A9-422D-9C57-71DB3A754AB1}" name="Total sell"/>
+    <tableColumn id="4" xr3:uid="{732DB85D-1B85-46E2-8EFE-FCE81A2C3976}" name="Revenue" dataDxfId="6">
+      <calculatedColumnFormula>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{12B6FBD1-43B0-4035-8E9C-B89EC7B98439}" name="City"/>
+    <tableColumn id="6" xr3:uid="{862A0528-E500-4593-B8AA-93993CBC2AF6}" name="Month"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,25 +2269,1087 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0B74D-1F7A-4B7C-8BCA-96B038E2A4C9}">
-  <dimension ref="E7:F8"/>
+  <dimension ref="E8:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E45"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="32" activeCol="4" previousRow="32" previousCol="4" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>42</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>78.5</v>
+      </c>
+      <c r="I9">
+        <v>1200</v>
+      </c>
+      <c r="J9">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>6000000</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="6">
+        <v>225000</v>
+      </c>
+      <c r="O9" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>6000</v>
+      </c>
+      <c r="H10">
+        <v>45.56</v>
+      </c>
+      <c r="I10">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>900000</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2250000</v>
+      </c>
+      <c r="O10" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>4500</v>
+      </c>
+      <c r="H11">
+        <v>56.56</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>2250000</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="6">
+        <v>900000</v>
+      </c>
+      <c r="O11" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>5000</v>
+      </c>
+      <c r="H12">
+        <v>45.5</v>
+      </c>
+      <c r="I12">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>2500000</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="6">
+        <v>11250000</v>
+      </c>
+      <c r="O12" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>700</v>
+      </c>
+      <c r="J13">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>140000</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="6">
+        <v>225000</v>
+      </c>
+      <c r="O13" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14">
+        <v>20.6</v>
+      </c>
+      <c r="I14">
+        <v>450</v>
+      </c>
+      <c r="J14">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>225000</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="O14" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>75000</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>11250000</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="6">
+        <v>6000000</v>
+      </c>
+      <c r="O15" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>450</v>
+      </c>
+      <c r="J16">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>45000</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="6">
+        <v>45000</v>
+      </c>
+      <c r="O16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>4500</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>200</v>
+      </c>
+      <c r="J17">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>900000</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="6">
+        <v>180000</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>450</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>225000</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="6">
+        <v>140000</v>
+      </c>
+      <c r="O18" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>1200</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>180000</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="6">
+        <v>315000</v>
+      </c>
+      <c r="O19" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20">
+        <v>450</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>700</v>
+      </c>
+      <c r="J20">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>315000</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="6">
+        <v>900000</v>
+      </c>
+      <c r="O20" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>450</v>
+      </c>
+      <c r="J21">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>90000</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="6">
+        <v>90000</v>
+      </c>
+      <c r="O21" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="6">
+        <v>25020000</v>
+      </c>
+      <c r="O22" s="6">
+        <v>103100</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="6">
+        <v>500</v>
+      </c>
+      <c r="G33" s="6">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="6">
+        <v>500</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="6">
+        <v>150</v>
+      </c>
+      <c r="G35" s="6">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="6">
+        <v>150</v>
+      </c>
+      <c r="G36" s="6">
+        <v>11250000</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="6">
+        <v>450</v>
+      </c>
+      <c r="G37" s="6">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="6">
+        <v>500</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1200</v>
+      </c>
+      <c r="G39" s="6">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="6">
+        <v>450</v>
+      </c>
+      <c r="G40" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="6">
+        <v>150</v>
+      </c>
+      <c r="G41" s="6">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="6">
+        <v>700</v>
+      </c>
+      <c r="G42" s="6">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="6">
+        <v>700</v>
+      </c>
+      <c r="G43" s="6">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="6">
+        <v>200</v>
+      </c>
+      <c r="G44" s="6">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="6">
+        <v>450</v>
+      </c>
+      <c r="G45" s="6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="6">
+        <v>6100</v>
+      </c>
+      <c r="G46" s="6">
+        <v>25020000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6371E9D-C32A-431D-8290-65245E218891}">
+  <dimension ref="G8:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9">
+        <v>1200</v>
+      </c>
+      <c r="J9">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>300000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>450</v>
+      </c>
+      <c r="J10">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>135000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <v>350</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>175000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>750</v>
+      </c>
+      <c r="I12">
+        <v>1200</v>
+      </c>
+      <c r="J12">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>900000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>800</v>
+      </c>
+      <c r="I13">
+        <v>750</v>
+      </c>
+      <c r="J13">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>600000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14">
+        <v>750</v>
+      </c>
+      <c r="I14">
+        <v>454</v>
+      </c>
+      <c r="J14">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>340500</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>250</v>
+      </c>
+      <c r="I15">
+        <v>450</v>
+      </c>
+      <c r="J15">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>112500</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>850</v>
+      </c>
+      <c r="I16">
+        <v>900</v>
+      </c>
+      <c r="J16">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>765000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
+      <c r="I17">
+        <v>450</v>
+      </c>
+      <c r="J17">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>225000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>250</v>
+      </c>
+      <c r="I18">
+        <v>900</v>
+      </c>
+      <c r="J18">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>225000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19">
+        <v>450</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <f>Table2[[#This Row],[Total sell]]*Table2[[#This Row],[Price]]</f>
+        <v>450000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6">
+        <v>175000</v>
+      </c>
+      <c r="K28" s="6">
+        <v>340500</v>
+      </c>
+      <c r="L28" s="6">
+        <v>515500</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6">
+        <v>175000</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
+        <v>340500</v>
+      </c>
+      <c r="L30" s="6">
+        <v>340500</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1327500</v>
+      </c>
+      <c r="J31" s="6">
+        <v>225000</v>
+      </c>
+      <c r="K31" s="6">
+        <v>225000</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1777500</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="6">
+        <v>112500</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6">
+        <v>225000</v>
+      </c>
+      <c r="L32" s="6">
+        <v>337500</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="6">
+        <v>450000</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6">
+        <v>225000</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="6">
+        <v>765000</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="6">
+        <v>900000</v>
+      </c>
+      <c r="J36" s="6">
+        <v>900000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>135000</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1935000</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <v>300000</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
+        <v>135000</v>
+      </c>
+      <c r="L38" s="6">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="6">
+        <v>900000</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6">
+        <v>600000</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2227500</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1300000</v>
+      </c>
+      <c r="K41" s="6">
+        <v>700500</v>
+      </c>
+      <c r="L41" s="6">
+        <v>4228000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI-202505B12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145C2D6-068C-463A-8ADA-F288E35EB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B85707-67B9-4483-8502-7D90810CC9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="2" xr2:uid="{983E819B-A7BE-4369-BA8C-587A618C4069}"/>
   </bookViews>
   <sheets>
     <sheet name="marksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="pivot table" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="pt" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenario Summary 2" sheetId="7" r:id="rId5"/>
+    <sheet name="Scenario Summary 3" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="Board">Sheet3!$J$12</definedName>
+    <definedName name="Card">Sheet3!$J$10</definedName>
+    <definedName name="LCD">Sheet3!$J$8</definedName>
+    <definedName name="Mother">Sheet3!$J$12</definedName>
+    <definedName name="Mouse">Sheet3!$J$11</definedName>
+    <definedName name="SSD">Sheet3!$J$9</definedName>
+    <definedName name="Total">Sheet3!$J$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
-    <pivotCache cacheId="17" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
   <si>
     <t>Id</t>
   </si>
@@ -285,13 +297,107 @@
   </si>
   <si>
     <t>Total sell</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Urud</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Graphic Card</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Mother Board</t>
+  </si>
+  <si>
+    <t>$J$8</t>
+  </si>
+  <si>
+    <t>$J$9</t>
+  </si>
+  <si>
+    <t>$J$10</t>
+  </si>
+  <si>
+    <t>$J$11</t>
+  </si>
+  <si>
+    <t>$J$12</t>
+  </si>
+  <si>
+    <t>$J$13</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Created by admin on 6/19/2025</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Created by admin on 6/19/2025
+Modified by admin on 6/19/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +413,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +473,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -345,11 +515,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -358,9 +566,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,108 +964,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1ED7339-9E33-47D8-9CAE-3BD9B6E0B79C}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E32:G46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="9"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Total Sell" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Revenue" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33847A6B-C00B-4D9C-9929-EC82D33651DF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33847A6B-C00B-4D9C-9929-EC82D33651DF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M8:O22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -939,8 +1074,109 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1ED7339-9E33-47D8-9CAE-3BD9B6E0B79C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E32:G46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Total Sell" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Revenue" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1B899B1-00F7-494D-B6A4-F280F8D5A37C}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1B899B1-00F7-494D-B6A4-F280F8D5A37C}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H26:L41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2271,9 +2507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0B74D-1F7A-4B7C-8BCA-96B038E2A4C9}">
   <dimension ref="E8:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E33" sqref="E33:E45"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="32" activeCol="4" previousRow="32" previousCol="4" click="1" r:id="rId1">
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="32" activeCol="4" previousRow="32" previousCol="4" click="1" r:id="rId2">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
             <reference field="0" count="0"/>
@@ -2339,10 +2575,10 @@
       <c r="M9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9">
         <v>225000</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9">
         <v>450</v>
       </c>
     </row>
@@ -2366,10 +2602,10 @@
       <c r="M10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>2250000</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10">
         <v>4500</v>
       </c>
     </row>
@@ -2393,10 +2629,10 @@
       <c r="M11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11">
         <v>900000</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11">
         <v>6000</v>
       </c>
     </row>
@@ -2420,10 +2656,10 @@
       <c r="M12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12">
         <v>11250000</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12">
         <v>75000</v>
       </c>
     </row>
@@ -2447,10 +2683,10 @@
       <c r="M13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13">
         <v>225000</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13">
         <v>500</v>
       </c>
     </row>
@@ -2474,10 +2710,10 @@
       <c r="M14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14">
         <v>2500000</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14">
         <v>5000</v>
       </c>
     </row>
@@ -2501,10 +2737,10 @@
       <c r="M15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15">
         <v>6000000</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15">
         <v>5000</v>
       </c>
     </row>
@@ -2528,10 +2764,10 @@
       <c r="M16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16">
         <v>45000</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16">
         <v>100</v>
       </c>
     </row>
@@ -2555,10 +2791,10 @@
       <c r="M17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17">
         <v>180000</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17">
         <v>1200</v>
       </c>
     </row>
@@ -2582,10 +2818,10 @@
       <c r="M18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18">
         <v>140000</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18">
         <v>200</v>
       </c>
     </row>
@@ -2609,10 +2845,10 @@
       <c r="M19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19">
         <v>315000</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19">
         <v>450</v>
       </c>
     </row>
@@ -2636,10 +2872,10 @@
       <c r="M20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20">
         <v>900000</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20">
         <v>4500</v>
       </c>
     </row>
@@ -2663,10 +2899,10 @@
       <c r="M21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21">
         <v>90000</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21">
         <v>200</v>
       </c>
     </row>
@@ -2674,10 +2910,10 @@
       <c r="M22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22">
         <v>25020000</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22">
         <v>103100</v>
       </c>
     </row>
@@ -2696,10 +2932,10 @@
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>500</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <v>225000</v>
       </c>
     </row>
@@ -2707,10 +2943,10 @@
       <c r="E34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>500</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34">
         <v>2250000</v>
       </c>
     </row>
@@ -2718,10 +2954,10 @@
       <c r="E35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>150</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>900000</v>
       </c>
     </row>
@@ -2729,10 +2965,10 @@
       <c r="E36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>150</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>11250000</v>
       </c>
     </row>
@@ -2740,10 +2976,10 @@
       <c r="E37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>450</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>225000</v>
       </c>
     </row>
@@ -2751,10 +2987,10 @@
       <c r="E38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>500</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>2500000</v>
       </c>
     </row>
@@ -2762,10 +2998,10 @@
       <c r="E39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>1200</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>6000000</v>
       </c>
     </row>
@@ -2773,10 +3009,10 @@
       <c r="E40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>450</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>45000</v>
       </c>
     </row>
@@ -2784,10 +3020,10 @@
       <c r="E41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>150</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>180000</v>
       </c>
     </row>
@@ -2795,10 +3031,10 @@
       <c r="E42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>700</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>140000</v>
       </c>
     </row>
@@ -2806,10 +3042,10 @@
       <c r="E43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>700</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>315000</v>
       </c>
     </row>
@@ -2817,10 +3053,10 @@
       <c r="E44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>200</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>900000</v>
       </c>
     </row>
@@ -2828,10 +3064,10 @@
       <c r="E45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45">
         <v>450</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45">
         <v>90000</v>
       </c>
     </row>
@@ -2839,10 +3075,10 @@
       <c r="E46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46">
         <v>6100</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46">
         <v>25020000</v>
       </c>
     </row>
@@ -2858,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6371E9D-C32A-431D-8290-65245E218891}">
   <dimension ref="G8:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="E19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,40 +3388,35 @@
       <c r="H28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="J28">
         <v>175000</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28">
         <v>340500</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28">
         <v>515500</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6">
+      <c r="J29">
         <v>175000</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6">
+      <c r="L29">
         <v>175000</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6">
+      <c r="K30">
         <v>340500</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30">
         <v>340500</v>
       </c>
     </row>
@@ -3193,70 +3424,63 @@
       <c r="H31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <v>1327500</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31">
         <v>225000</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31">
         <v>225000</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31">
         <v>1777500</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <v>112500</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
+      <c r="K32">
         <v>225000</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32">
         <v>337500</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <v>450000</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6">
+      <c r="L33">
         <v>450000</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="J34">
         <v>225000</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6">
+      <c r="L34">
         <v>225000</v>
       </c>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <v>765000</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6">
+      <c r="L35">
         <v>765000</v>
       </c>
     </row>
@@ -3264,68 +3488,60 @@
       <c r="H36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>900000</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36">
         <v>900000</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36">
         <v>135000</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36">
         <v>1935000</v>
       </c>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6">
+      <c r="J37">
         <v>300000</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6">
+      <c r="L37">
         <v>300000</v>
       </c>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+      <c r="K38">
         <v>135000</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38">
         <v>135000</v>
       </c>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <v>900000</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6">
+      <c r="L39">
         <v>900000</v>
       </c>
     </row>
     <row r="40" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="J40">
         <v>600000</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6">
+      <c r="L40">
         <v>600000</v>
       </c>
     </row>
@@ -3333,16 +3549,16 @@
       <c r="H41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41">
         <v>2227500</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41">
         <v>1300000</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41">
         <v>700500</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41">
         <v>4228000</v>
       </c>
     </row>
@@ -3352,4 +3568,501 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF5F4FD-1FDF-47E4-A3B2-9D9DF5A0622E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="18">
+        <v>11500</v>
+      </c>
+      <c r="F6" s="18">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8000</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="8">
+        <v>75000</v>
+      </c>
+      <c r="E8" s="18">
+        <v>76000</v>
+      </c>
+      <c r="F8" s="18">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="18">
+        <v>46000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="9">
+        <v>140000</v>
+      </c>
+      <c r="E12" s="9">
+        <v>137000</v>
+      </c>
+      <c r="F12" s="9">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45B7076-6254-4526-B5BD-9D91C311FA6A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="56.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="18">
+        <v>11500</v>
+      </c>
+      <c r="F6" s="18">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8000</v>
+      </c>
+      <c r="E7" s="18">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="8">
+        <v>75000</v>
+      </c>
+      <c r="E8" s="18">
+        <v>76000</v>
+      </c>
+      <c r="F8" s="18">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="18">
+        <v>46000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>140000</v>
+      </c>
+      <c r="E12" s="9">
+        <v>146000</v>
+      </c>
+      <c r="F12" s="9">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AE4ED7-5B48-4DA9-BEC4-9389D7480D85}">
+  <dimension ref="F7:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1">
+        <v>89</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1">
+        <v>73.999999999999972</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <f>SUM(G8:G12)</f>
+        <v>350</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <f>SUM(J8:J12)</f>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+  </sheetData>
+  <scenarios current="0" sqref="J13">
+    <scenario name="Maximum" locked="1" count="5" user="admin" comment="Created by admin on 6/19/2025_x000a_Modified by admin on 6/19/2025">
+      <inputCells r="J8" val="11500"/>
+      <inputCells r="J9" val="10000"/>
+      <inputCells r="J10" val="76000"/>
+      <inputCells r="J11" val="2500"/>
+      <inputCells r="J12" val="46000"/>
+    </scenario>
+    <scenario name="Minimum" locked="1" count="5" user="admin" comment="Created by admin on 6/19/2025">
+      <inputCells r="J8" val="8500"/>
+      <inputCells r="J9" val="7000"/>
+      <inputCells r="J10" val="70000"/>
+      <inputCells r="J11" val="1500"/>
+      <inputCells r="J12" val="40000"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>